--- a/Output_testing/R1_201907/Country/HKD/MN/JAMAICA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/JAMAICA_201907_HKD_MN.xlsx
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>123</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/JAMAICA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/JAMAICA_201907_HKD_MN.xlsx
@@ -553,8 +553,10 @@
       <c r="F7" s="8" t="n">
         <v>1.134209</v>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.160418</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>-68.21883594757381</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/JAMAICA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/JAMAICA_201907_HKD_MN.xlsx
@@ -812,136 +812,459 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>129.978708</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>75.84147811200363</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>41.474651</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>55.48076072220707</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>33.228954</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>51.08183683154495</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>25.368475</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>51.71152610559652</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>50.36454777618389</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>6.307329</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>3.680273189811255</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>6.416818</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>8.58379601689599</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>7.055057</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>10.84551955837217</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>5.333155</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>10.87119284890765</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>70.65751954440597</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>0.689075</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.4020694414813609</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>0.513503</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.6869144498198549</v>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.06176131444113919</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>3.804754</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>7.755674544739987</v>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.06961829567642053</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>2.99672</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>6.108564449032241</v>
+      </c>
+      <c r="K21" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>PUMPS (OTHER THAN PUMPS FOR LIQUIDS), AIR COMPRESSORS AND FANS; VENTILATING HOODS INCORPORATING A FAN; CENTRIFUGES; FILTERING APPARATUS; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>2.785517</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.625325638612395</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>3.067021</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>4.102762871494307</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>2.927105</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>4.499747419037005</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>2.233538</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.552881424478287</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-7.361859118594294</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F23" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.6975880205186656</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1.272004</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.592874347095093</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>242.4677524009014</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1.030932</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.601540113115789</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1.198877</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.603741233949321</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>1.830278</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.813629407424815</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>0.997969</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.034276794173715</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>3.561462731762299</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>3.723664</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.172726488037224</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>3.170392</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>4.241042557479254</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>2.479021</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>3.810921831122744</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>0.655691</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.336571562291572</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-62.95934963023806</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>0.944609</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.5511713718365444</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>0.594631</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.7954396103057433</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>0.824908</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.268105395584709</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>0.6342</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.29276394644019</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>69.7110470063742</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>1.058479</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.6176135549102048</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>0.7958460000000001</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.064605498373588</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>0.763921</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.174351978524231</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>0.622208</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.26831925194995</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>144.7026990887675</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>24.863774</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>14.50780209019161</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>17.523276</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>23.44093703947488</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>15.401938</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>23.67691994775315</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>5.138966</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>10.4753547252948</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-48.32931347010118</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -973,136 +1296,561 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>1.849200482170336</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>10.1310252343263</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>35.40812128314778</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD EQUIPMENT OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>2.045700478443612</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>5.279030349547475</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>2.383070492299038</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>34.98983904549365</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>190.7085146053449</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>2.210612</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>74.89400857959639</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>0.840573</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>89.60663916338866</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>36.27082839229807</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>14.95779775336932</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-93.17093856548442</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>1.016853601404501</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>2.781562143550055</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>1.51700436163</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>10.09986410502562</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>9.089684890923788</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0.5750674028866527</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>1.188077648789536</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>1.840489715740221</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>4.544377812963632</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-65.07784431137725</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>0.542515</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>18.38003370313729</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>0.503241</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>44.36933581024309</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>2.242443852940684</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL AND CLOTHING ACCESSORIES OF OTHER THAN TEXTILE FABRICS; HEADGEAR OF ALL MATERIALS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>1.245802140522602</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>1.144690694724274</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>FIXED VEGETABLE FATS AND OILS, `SOFT', CRUDE, REFINED OR FRACTIONATED</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>1.239135752361219</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1134,136 +1882,459 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>129.978708</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>77.17055978832519</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>41.474651</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>56.1858134334874</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>33.228954</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>51.98829655445832</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>25.368475</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>51.88117690516086</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>50.36454777618389</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>6.252747</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>3.712361767781004</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>6.416818</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>8.692879392394254</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>6.94015</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>10.85819843538933</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>5.276354</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>10.79069417015619</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>68.83992418712839</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>0.689075</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.4091154951789503</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>0.513503</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.6956437983175814</v>
+      </c>
+      <c r="G46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.0628572841134848</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>3.804754</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>7.781118705583147</v>
+      </c>
+      <c r="K46" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.0708536894077904</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>2.99672</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>6.128604910434453</v>
+      </c>
+      <c r="K47" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>PUMPS (OTHER THAN PUMPS FOR LIQUIDS), AIR COMPRESSORS AND FANS; VENTILATING HOODS INCORPORATING A FAN; CENTRIFUGES; FILTERING APPARATUS; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>2.785517</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.653808608329113</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>3.067021</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>4.154901019000447</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>2.927105</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>4.579596540596424</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>2.233538</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.567818132639001</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-7.361859118594294</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E49" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F49" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.7099668910332934</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1.272004</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.601380829871415</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>242.4677524009014</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1.030932</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.6120817845311839</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1.198877</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.624121670166653</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>1.830278</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.863557951330664</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>0.997969</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.040950677361035</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>3.561462731762299</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>1.513052</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.8983245919696711</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>2.329819</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>3.15621162593494</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>2.067634</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>3.234912828074</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>0.631696</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.291884195888105</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-55.47758817671217</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>1.058479</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.6284369048674238</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>0.7958460000000001</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.078134566528051</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>0.738487</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.155398426252366</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>0.622208</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.272480246439974</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>171.9000860874771</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>0.914595</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.5430105377690265</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>0.568538</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.7701998504543909</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>0.807702</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.263688622387244</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>0.617998</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.263870357403652</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>72.22008572017768</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>24.207328</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>14.37230052124844</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>17.451872</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>23.64209464371629</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>14.836663</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>23.21267277695708</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>5.075546</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>10.38002086906216</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-48.68675994932516</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1295,136 +2366,525 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>3.851274621137957</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>1.584759</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>5.644774564175833</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>0.616737</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>2.152493797336666</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>12.294994</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>62.22083605006657</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>1.640491</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>13.78535831456201</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>1.882054</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>6.703713654634797</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>4.762509</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>16.62178705389826</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>2.948065</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>14.91916702276874</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>127.1026561488923</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.2410035022817183</v>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>1.94922</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>9.864347883822534</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>1.105277</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>9.287853137776526</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>2.215741</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>7.892277903202648</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>5.935361</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>20.71519584110237</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>1.123708</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.686708853712999</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-46.87974495651894</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>1.164884046632636</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>0.8787239999999999</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.446927093844755</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.066579395035341</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.51546650315998</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>COFFEE AND COFFEE SUBSTITUTES</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.9269391328344416</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.14174289488184</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.7803761580957391</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.995736289193073</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>216.2428879102511</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>037</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>FISH, CRUSTACEANS, MOLLUSCS AND OTHER AQUATIC INVERTEBRATES, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>0.650468</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.270219453942258</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.3254411937661523</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.4549907472469887</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.05457207758260905</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.06396365683231114</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-69.28481806775409</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.5462241860291581</v>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>8.438027999999999</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>70.90635635813121</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>21.753408</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>77.48375883180918</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>16.111446</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>56.23107999215977</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
